--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1091E6-80BB-4655-B2A7-4038EF594FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F763F4-4630-45A8-A9CF-E4E50B4A1B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール表" sheetId="1" r:id="rId1"/>
+    <sheet name="やることリスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>チーム制作スケジュール表</t>
     <rPh sb="3" eb="5">
@@ -201,6 +224,96 @@
     <rPh sb="8" eb="10">
       <t>ヨテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵実装</t>
+    <rPh sb="0" eb="3">
+      <t>テキジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ作る</t>
+    <rPh sb="4" eb="5">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>できていないもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーム制作やること(仮)</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -254,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,13 +480,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -421,6 +551,13 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{0417FA29-78FA-4A13-93AC-8FF0FAFDF519}">
+          <xfpb:DXFComplement i="0"/>
+        </ext>
+      </extLst>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -438,6 +575,39 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+  <bag type="DXFComplements" extRef="DXFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{675B4793-30AB-46F8-AB72-8882F6A8C2D4}" name="テーブル5" displayName="テーブル5" ref="C3:D11" totalsRowShown="0">
+  <autoFilter ref="C3:D11" xr:uid="{675B4793-30AB-46F8-AB72-8882F6A8C2D4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00BB80B7-1439-4CFB-9BE2-717E3FBD4B96}" name="チーム制作やること(仮)"/>
+    <tableColumn id="2" xr3:uid="{A7974007-B03B-43F1-A9BF-15A349B4681D}" name="チェック" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,7 +930,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1198,12 +1368,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1211,6 +1381,14 @@
   <conditionalFormatting sqref="A2:C1048576">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>$A2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C33">
+    <cfRule type="expression" priority="1">
+      <formula>$A2</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
+      <formula>$A3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C34">
@@ -1241,14 +1419,129 @@
       <formula>B4="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C33">
-    <cfRule type="expression" priority="2">
-      <formula>$A3</formula>
-    </cfRule>
-    <cfRule type="expression" priority="1">
-      <formula>$A2</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406BC9F-C35B-4DD0-B1C8-EE2924B2CD3B}">
+  <dimension ref="C3:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="str" cm="1">
+        <f t="array" ref="I4:I11">_xlfn._xlws.FILTER(C4:C11,D4:D11=FALSE,"なし")</f>
+        <v>タイトル画面</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <v>ゲーム画面</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <v>リザルト画面</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <v>ゲームループ</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <v>プレイヤー実装</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <v>敵実装</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <v>アイテム実装</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <v>ステージ作る</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F763F4-4630-45A8-A9CF-E4E50B4A1B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9681F-F7FA-479A-8609-24828F68CAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
+    <workbookView xWindow="5475" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール表" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>チーム制作スケジュール表</t>
     <rPh sb="3" eb="5">
@@ -294,26 +294,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>列1</t>
-  </si>
-  <si>
     <t>チェック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平均</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>累計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個数</t>
+    <t>曽和(バイト11時～16時）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和(バイト18時～23時半）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和(バイト17時～23時半)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和(バイト15時～22時)</t>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曽和(バイト11時～17時）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -930,8 +934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1183,7 +1187,9 @@
         <v>土</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
@@ -1233,7 +1239,9 @@
         <v>水</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
@@ -1271,7 +1279,9 @@
         <v>土</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
@@ -1309,7 +1319,9 @@
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
@@ -1321,7 +1333,9 @@
         <v>水</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
@@ -1360,7 +1374,9 @@
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="5"/>
@@ -1368,12 +1384,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1427,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406BC9F-C35B-4DD0-B1C8-EE2924B2CD3B}">
   <dimension ref="C3:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1442,7 +1458,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>23</v>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9681F-F7FA-479A-8609-24828F68CAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6851A65-0CC2-4E3E-87D0-7E18E7927220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>チーム制作スケジュール表</t>
     <rPh sb="3" eb="5">
@@ -310,14 +310,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>曽和(バイト15時～22時)</t>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>曽和(バイト11時～17時）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休講日</t>
+    <rPh sb="0" eb="2">
+      <t>キュウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -935,7 +938,7 @@
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1317,11 +1320,9 @@
         <v>火</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
@@ -1375,7 +1376,7 @@
         <v>土</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -1384,12 +1385,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6851A65-0CC2-4E3E-87D0-7E18E7927220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510CB3BC-B4B2-45E4-9BA5-551D9BA8D128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5475" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>チーム制作スケジュール表</t>
     <rPh sb="3" eb="5">
@@ -320,6 +320,16 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対面試遊会</t>
+    <rPh sb="0" eb="2">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シユウカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -937,8 +947,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1375,6 +1385,9 @@
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
       <c r="D33" s="13" t="s">
         <v>29</v>
       </c>
@@ -1385,12 +1398,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
+      <selection activeCell="G13" sqref="G13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
       <selection activeCell="C18" sqref="C18"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
-      <selection activeCell="G13" sqref="G13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1445,7 +1458,7 @@
   <dimension ref="C3:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1470,11 +1483,11 @@
         <v>15</v>
       </c>
       <c r="D4" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="str" cm="1">
-        <f t="array" ref="I4:I11">_xlfn._xlws.FILTER(C4:C11,D4:D11=FALSE,"なし")</f>
-        <v>タイトル画面</v>
+        <f t="array" ref="I4">_xlfn._xlws.FILTER(C4:C11,D4:D11=FALSE,"なし")</f>
+        <v>ゲーム画面</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
@@ -1484,75 +1497,61 @@
       <c r="D5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="str">
-        <v>ゲーム画面</v>
-      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <v>リザルト画面</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <v>ゲームループ</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <v>プレイヤー実装</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <v>敵実装</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <v>アイテム実装</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <v>ステージ作る</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/予定表.xlsx
+++ b/予定表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510CB3BC-B4B2-45E4-9BA5-551D9BA8D128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E59544E-DF1F-4C9A-94C9-594B844323FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
+    <workbookView xWindow="5475" yWindow="0" windowWidth="14610" windowHeight="15480" activeTab="1" xr2:uid="{E2993E8A-9BDB-4E80-9536-118CF60D7AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール表" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="2240021 - 個人用ビュー" guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="2240007 - 個人用ビュー" guid="{65859046-4337-4AB0-9D9F-92796D02B706}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>チーム制作スケジュール表</t>
     <rPh sb="3" eb="5">
@@ -330,6 +330,89 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>シユウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブーストの音楽を探して左クリックで流す</t>
+    <rPh sb="5" eb="7">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア・ブーストのUIを作る</t>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終難易度調整</t>
+    <rPh sb="0" eb="7">
+      <t>サイシュウナンイドチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれのリングの音の確認</t>
+    <rPh sb="9" eb="10">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム最終チェック(何回も遊んで確認する)</t>
+    <rPh sb="3" eb="5">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品情報シート完成</t>
+    <rPh sb="0" eb="4">
+      <t>サクヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰が提出するか(確認する人も含めて決定)</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM・SEの最終確認</t>
+    <rPh sb="7" eb="11">
+      <t>サイシュウカクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -947,7 +1030,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1398,12 +1481,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{752081B0-37D1-4A16-8EFA-71E77FD594BF}">
       <selection activeCell="G13" sqref="G13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{65859046-4337-4AB0-9D9F-92796D02B706}">
-      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1455,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406BC9F-C35B-4DD0-B1C8-EE2924B2CD3B}">
-  <dimension ref="C3:I11"/>
+  <dimension ref="C3:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1553,6 +1636,46 @@
       </c>
       <c r="I11" s="1"/>
     </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
